--- a/dist/excel/master_sheet.xlsx
+++ b/dist/excel/master_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Lux-Bot\1 file from roman on Feb 23, 2022\new_task\new_task\dist\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amisr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CFC1DD-729A-4EE5-A66A-30B5F6DD7523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BFBCCD2-5B1B-4283-A7DD-D472D7811C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CDA4E759-DBC3-4EC3-8983-35D4B16D0D8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="240">
   <si>
     <t>Cat. Type</t>
   </si>
@@ -751,6 +751,9 @@
   </si>
   <si>
     <t>Feature 108</t>
+  </si>
+  <si>
+    <t>C11</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1251,10 @@
   <dimension ref="A1:BF265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D240"/>
+      <selection pane="bottomRight" activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,7 +1654,9 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="D20" t="s">
         <v>64</v>
       </c>
@@ -2959,7 +2964,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -3888,7 +3893,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -5293,7 +5298,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C126" s="5">
         <v>1</v>
@@ -5735,7 +5740,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C141" s="6">
         <v>1</v>
@@ -6762,7 +6767,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C171" s="7">
         <v>1</v>
@@ -7077,7 +7082,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C185" s="8">
         <v>1</v>
@@ -7601,7 +7606,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C201" s="9">
         <v>1</v>
@@ -8390,7 +8395,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="22" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="C233" s="10">
         <v>2</v>
